--- a/data/trans_orig/P42B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Edad-trans_orig.xlsx
@@ -687,19 +687,19 @@
         <v>35526</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27978</v>
+        <v>27850</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41786</v>
+        <v>41790</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6509179361244753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5126183429333351</v>
+        <v>0.5102826912650752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7656127346047281</v>
+        <v>0.7657021699126142</v>
       </c>
     </row>
     <row r="8">
@@ -716,19 +716,19 @@
         <v>5380</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2013</v>
+        <v>1958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12364</v>
+        <v>11247</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09857242626098027</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03688994437144253</v>
+        <v>0.03587888415387339</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2265451332854628</v>
+        <v>0.206070040084281</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>13672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8128</v>
+        <v>8399</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21515</v>
+        <v>21588</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2505096376145443</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1489165087949948</v>
+        <v>0.1538837969671591</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3942054497132597</v>
+        <v>0.3955463095819793</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5756</v>
+        <v>4757</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008267588425273864</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04134749215299592</v>
+        <v>0.03416899738232843</v>
       </c>
     </row>
     <row r="13">
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8293</v>
+        <v>6134</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01423207924251169</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05957436830779499</v>
+        <v>0.04406092327063563</v>
       </c>
     </row>
     <row r="14">
@@ -886,19 +886,19 @@
         <v>108043</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96562</v>
+        <v>98036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117035</v>
+        <v>118193</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7761378884492314</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6936622790225362</v>
+        <v>0.7042487098879179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8407292108271246</v>
+        <v>0.8490541399148305</v>
       </c>
     </row>
     <row r="15">
@@ -915,19 +915,19 @@
         <v>11221</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5357</v>
+        <v>5663</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20398</v>
+        <v>19637</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08060707198588693</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03847950734706417</v>
+        <v>0.04067722845766186</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1465294332884208</v>
+        <v>0.1410653831366764</v>
       </c>
     </row>
     <row r="16">
@@ -944,19 +944,19 @@
         <v>16810</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10048</v>
+        <v>9283</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25822</v>
+        <v>25803</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1207553718970962</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0721827599940746</v>
+        <v>0.0666849743964138</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1854921284225174</v>
+        <v>0.1853572967165671</v>
       </c>
     </row>
     <row r="17">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6650</v>
+        <v>5690</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01089444116715619</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03921068259300575</v>
+        <v>0.03355035946817469</v>
       </c>
     </row>
     <row r="19">
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7008</v>
+        <v>7192</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01191967819650257</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04132250283688723</v>
+        <v>0.04240680630447564</v>
       </c>
     </row>
     <row r="20">
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5997</v>
+        <v>6207</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01155802648996906</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03536086994182022</v>
+        <v>0.03659821852373887</v>
       </c>
     </row>
     <row r="21">
@@ -1093,19 +1093,19 @@
         <v>127955</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>114732</v>
+        <v>116254</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>138390</v>
+        <v>139299</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7545158123468459</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6765445835319469</v>
+        <v>0.6855138551457007</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8160446064531693</v>
+        <v>0.8214068196782099</v>
       </c>
     </row>
     <row r="22">
@@ -1122,19 +1122,19 @@
         <v>11342</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5332</v>
+        <v>5486</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20079</v>
+        <v>20412</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0668798698739549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03144203127777075</v>
+        <v>0.03234728916338783</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1183976120681724</v>
+        <v>0.1203632741662633</v>
       </c>
     </row>
     <row r="23">
@@ -1151,19 +1151,19 @@
         <v>24460</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15970</v>
+        <v>16354</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>34213</v>
+        <v>34817</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1442321719255713</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09416769376324888</v>
+        <v>0.09643379100244487</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2017417384088854</v>
+        <v>0.2053072672458165</v>
       </c>
     </row>
     <row r="24">
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3970</v>
+        <v>5397</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006877437455989407</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02798743650984769</v>
+        <v>0.03804521123308052</v>
       </c>
     </row>
     <row r="26">
@@ -1242,19 +1242,19 @@
         <v>4023</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10187</v>
+        <v>9203</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02835908477756258</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006848495455009085</v>
+        <v>0.006887734851029395</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07181322436118336</v>
+        <v>0.06487625186371251</v>
       </c>
     </row>
     <row r="27">
@@ -1271,19 +1271,19 @@
         <v>8126</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4004</v>
+        <v>3945</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15713</v>
+        <v>15326</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05727861106773287</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02822283864775969</v>
+        <v>0.02780600080385016</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1107610495305</v>
+        <v>0.1080344822859535</v>
       </c>
     </row>
     <row r="28">
@@ -1300,19 +1300,19 @@
         <v>108235</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>96742</v>
+        <v>96557</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>117141</v>
+        <v>117162</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7629665222801519</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6819512743580048</v>
+        <v>0.6806448681200292</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8257461668872429</v>
+        <v>0.8258930406906623</v>
       </c>
     </row>
     <row r="29">
@@ -1329,19 +1329,19 @@
         <v>2877</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7693</v>
+        <v>7598</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02027951405135682</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006473825305250133</v>
+        <v>0.006492274518360024</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05422994566492523</v>
+        <v>0.05355700251056068</v>
       </c>
     </row>
     <row r="30">
@@ -1358,19 +1358,19 @@
         <v>17625</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10795</v>
+        <v>11227</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26776</v>
+        <v>25753</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1242388303672064</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07609886575730361</v>
+        <v>0.07914379825882313</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1887491496287537</v>
+        <v>0.1815370374138766</v>
       </c>
     </row>
     <row r="31">
@@ -1441,19 +1441,19 @@
         <v>3726</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8774</v>
+        <v>8520</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04529491591314529</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01157550261436896</v>
+        <v>0.01135659298485207</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1066573385619381</v>
+        <v>0.1035787402172774</v>
       </c>
     </row>
     <row r="34">
@@ -1470,19 +1470,19 @@
         <v>9939</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4997</v>
+        <v>5720</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16763</v>
+        <v>18146</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1208283932151392</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06074965623069915</v>
+        <v>0.06953509359098216</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2037751009095766</v>
+        <v>0.2205932052206003</v>
       </c>
     </row>
     <row r="35">
@@ -1499,19 +1499,19 @@
         <v>63803</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>55655</v>
+        <v>54797</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>70445</v>
+        <v>69803</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7756252625429608</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6765694728943121</v>
+        <v>0.6661445376866768</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8563740121344139</v>
+        <v>0.848568621609442</v>
       </c>
     </row>
     <row r="36">
@@ -1549,19 +1549,19 @@
         <v>4792</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1850</v>
+        <v>1839</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10516</v>
+        <v>10588</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05825142832875463</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02249447525073684</v>
+        <v>0.02235768403312203</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1278427288783562</v>
+        <v>0.1287097321518788</v>
       </c>
     </row>
     <row r="38">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5391</v>
+        <v>5635</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03549534968384574</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1082088199379558</v>
+        <v>0.1131073986391611</v>
       </c>
     </row>
     <row r="41">
@@ -1661,19 +1661,19 @@
         <v>7416</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3672</v>
+        <v>3581</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>12941</v>
+        <v>12777</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1488556758618401</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07370525722844232</v>
+        <v>0.07187783733036421</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2597389289937833</v>
+        <v>0.2564395621495293</v>
       </c>
     </row>
     <row r="42">
@@ -1690,19 +1690,19 @@
         <v>30382</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>23759</v>
+        <v>23792</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>36753</v>
+        <v>36680</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6098012057047757</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4768601515784422</v>
+        <v>0.4775208103249263</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7376779208698142</v>
+        <v>0.7362114369018966</v>
       </c>
     </row>
     <row r="43">
@@ -1740,19 +1740,19 @@
         <v>10256</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>5584</v>
+        <v>5641</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>16942</v>
+        <v>16947</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2058477687495385</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1120843617312411</v>
+        <v>0.1132113863312918</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3400507537781384</v>
+        <v>0.340152696480411</v>
       </c>
     </row>
     <row r="45">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>5744</v>
+        <v>5668</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.06661824871788201</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3340155969125318</v>
+        <v>0.3295557863890782</v>
       </c>
     </row>
     <row r="48">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5974</v>
+        <v>6747</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.06985808550526736</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3473445695232856</v>
+        <v>0.3922935760674949</v>
       </c>
     </row>
     <row r="49">
@@ -1881,19 +1881,19 @@
         <v>10367</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>5548</v>
+        <v>5640</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>13989</v>
+        <v>14026</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.6028305695452011</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3225684378706914</v>
+        <v>0.3279373132701789</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.8133892713129564</v>
+        <v>0.815586876523605</v>
       </c>
     </row>
     <row r="50">
@@ -1931,19 +1931,19 @@
         <v>4483</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>1168</v>
+        <v>1149</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>9250</v>
+        <v>9164</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.2606930962316495</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.06790429035040882</v>
+        <v>0.06681439684054089</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5378429662644316</v>
+        <v>0.5328647884614975</v>
       </c>
     </row>
     <row r="52">
@@ -1993,19 +1993,19 @@
         <v>2823</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>7877</v>
+        <v>7507</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.004313424273206853</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.00125095378895103</v>
+        <v>0.001316901309908745</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01203513665132991</v>
+        <v>0.01146883769799683</v>
       </c>
     </row>
     <row r="54">
@@ -2022,19 +2022,19 @@
         <v>13836</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7911</v>
+        <v>7677</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>22841</v>
+        <v>22569</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.02113866297867358</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01208703635656748</v>
+        <v>0.01173007034512648</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.03489811981071405</v>
+        <v>0.03448182379171579</v>
       </c>
     </row>
     <row r="55">
@@ -2051,19 +2051,19 @@
         <v>30624</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>21131</v>
+        <v>20844</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>42034</v>
+        <v>42885</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.04678920067041029</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.03228555573927464</v>
+        <v>0.03184599675607359</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.0642211514801516</v>
+        <v>0.06552147352254074</v>
       </c>
     </row>
     <row r="56">
@@ -2080,19 +2080,19 @@
         <v>484313</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>462446</v>
+        <v>462618</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>505007</v>
+        <v>505244</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.7399587140533042</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.7065489983117857</v>
+        <v>0.7068129384815227</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7715771859387025</v>
+        <v>0.7719382072008186</v>
       </c>
     </row>
     <row r="57">
@@ -2109,19 +2109,19 @@
         <v>30820</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>20797</v>
+        <v>20530</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>45135</v>
+        <v>43487</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.04708793335115519</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.03177411724751907</v>
+        <v>0.03136675397059274</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.06896007645694004</v>
+        <v>0.0664424958447261</v>
       </c>
     </row>
     <row r="58">
@@ -2138,19 +2138,19 @@
         <v>92098</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>76213</v>
+        <v>75508</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>112739</v>
+        <v>110385</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.14071206467325</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.116442139036623</v>
+        <v>0.1153647474304056</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.1722483442965661</v>
+        <v>0.1686526087316564</v>
       </c>
     </row>
     <row r="59">
@@ -2321,19 +2321,19 @@
         <v>3968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9960</v>
+        <v>9944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01714280684120029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004353773855667445</v>
+        <v>0.00437499424646001</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0430351399951229</v>
+        <v>0.04296339458759147</v>
       </c>
     </row>
     <row r="5">
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4947</v>
+        <v>4960</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004223732627085513</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02137365580269841</v>
+        <v>0.02143271576623891</v>
       </c>
     </row>
     <row r="7">
@@ -2400,19 +2400,19 @@
         <v>136998</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122056</v>
+        <v>122511</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>152829</v>
+        <v>151819</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5919293025945358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5273673733037132</v>
+        <v>0.5293337217996708</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6603292697236797</v>
+        <v>0.655966093295433</v>
       </c>
     </row>
     <row r="8">
@@ -2429,19 +2429,19 @@
         <v>24561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16716</v>
+        <v>16195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36155</v>
+        <v>34845</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1061208319630179</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07222542974917599</v>
+        <v>0.06997583529173371</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1562163196052963</v>
+        <v>0.1505528145436379</v>
       </c>
     </row>
     <row r="9">
@@ -2458,19 +2458,19 @@
         <v>64939</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>51097</v>
+        <v>51300</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>79240</v>
+        <v>78559</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2805833259741605</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.220774912854408</v>
+        <v>0.2216528443051188</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3423741918562132</v>
+        <v>0.3394319402357644</v>
       </c>
     </row>
     <row r="10">
@@ -2520,19 +2520,19 @@
         <v>9171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4892</v>
+        <v>4974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17373</v>
+        <v>17558</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01859082422027502</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009917754401139348</v>
+        <v>0.01008316410143599</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03521948996213924</v>
+        <v>0.03559349711261664</v>
       </c>
     </row>
     <row r="12">
@@ -2549,19 +2549,19 @@
         <v>3847</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>983</v>
+        <v>900</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10026</v>
+        <v>9013</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007798176569521838</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001993557524159093</v>
+        <v>0.0018241844549597</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02032464231141009</v>
+        <v>0.01827196327724003</v>
       </c>
     </row>
     <row r="13">
@@ -2578,19 +2578,19 @@
         <v>3948</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9015</v>
+        <v>9108</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008003249077128708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002023427420498193</v>
+        <v>0.002039305217122104</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0182762608647086</v>
+        <v>0.01846368596344595</v>
       </c>
     </row>
     <row r="14">
@@ -2607,19 +2607,19 @@
         <v>341066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>320287</v>
+        <v>319839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361301</v>
+        <v>362446</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6914127204186551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6492880147414686</v>
+        <v>0.6483810408393232</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7324320298370689</v>
+        <v>0.7347541213379486</v>
       </c>
     </row>
     <row r="15">
@@ -2636,19 +2636,19 @@
         <v>59538</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46312</v>
+        <v>45857</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>76935</v>
+        <v>75704</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1206958707492767</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09388509567587389</v>
+        <v>0.09296178341883558</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1559625800505732</v>
+        <v>0.1534671108592556</v>
       </c>
     </row>
     <row r="16">
@@ -2665,19 +2665,19 @@
         <v>75719</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59841</v>
+        <v>60091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92566</v>
+        <v>92471</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1534991589651426</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1213092816309294</v>
+        <v>0.1218165230078702</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1876500843385715</v>
+        <v>0.187457874528049</v>
       </c>
     </row>
     <row r="17">
@@ -2727,19 +2727,19 @@
         <v>12292</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6946</v>
+        <v>6901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20999</v>
+        <v>21329</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01986254371494826</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01122371981199674</v>
+        <v>0.01115133095941499</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03393214960685695</v>
+        <v>0.03446436354296431</v>
       </c>
     </row>
     <row r="19">
@@ -2756,19 +2756,19 @@
         <v>4533</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>963</v>
+        <v>1696</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11638</v>
+        <v>10886</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007324036940116551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001556214039309223</v>
+        <v>0.002740146025747346</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01880522745929021</v>
+        <v>0.01759094622589726</v>
       </c>
     </row>
     <row r="20">
@@ -2785,19 +2785,19 @@
         <v>6049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2015</v>
+        <v>2071</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12419</v>
+        <v>13159</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009774632746925065</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003256436961020571</v>
+        <v>0.003345720209094951</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02006737184016136</v>
+        <v>0.02126318793045397</v>
       </c>
     </row>
     <row r="21">
@@ -2814,19 +2814,19 @@
         <v>464311</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>441677</v>
+        <v>440887</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>484494</v>
+        <v>484229</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7502662957389482</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7136918110727741</v>
+        <v>0.7124164171483051</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7828793251318111</v>
+        <v>0.7824503731803489</v>
       </c>
     </row>
     <row r="22">
@@ -2843,19 +2843,19 @@
         <v>50491</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37146</v>
+        <v>37707</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65726</v>
+        <v>66234</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08158732320518906</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06002259005831249</v>
+        <v>0.06093019384848213</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1062053370327665</v>
+        <v>0.1070255748298048</v>
       </c>
     </row>
     <row r="23">
@@ -2872,19 +2872,19 @@
         <v>81186</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>66141</v>
+        <v>66829</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>98896</v>
+        <v>101961</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1311851676538728</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1068746049704609</v>
+        <v>0.1079866124442364</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1598031789245737</v>
+        <v>0.1647559725313325</v>
       </c>
     </row>
     <row r="24">
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6750</v>
+        <v>6626</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003942626529906</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0125593105308553</v>
+        <v>0.01232814668660689</v>
       </c>
     </row>
     <row r="26">
@@ -2963,19 +2963,19 @@
         <v>3104</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9258</v>
+        <v>9070</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005775871276409151</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001824924406546235</v>
+        <v>0.001817259486606881</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01722536078687051</v>
+        <v>0.01687557027133254</v>
       </c>
     </row>
     <row r="27">
@@ -2992,19 +2992,19 @@
         <v>12198</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6131</v>
+        <v>5328</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>22513</v>
+        <v>22491</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02269693274865991</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01140807285232019</v>
+        <v>0.009914435446753019</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04188992449003381</v>
+        <v>0.0418492617917505</v>
       </c>
     </row>
     <row r="28">
@@ -3021,19 +3021,19 @@
         <v>425366</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>404701</v>
+        <v>405742</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>443216</v>
+        <v>444384</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7914744690234671</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7530224758938948</v>
+        <v>0.7549603717036503</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8246873373443534</v>
+        <v>0.8268615626245968</v>
       </c>
     </row>
     <row r="29">
@@ -3050,19 +3050,19 @@
         <v>13195</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6669</v>
+        <v>7589</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21502</v>
+        <v>23029</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02455223797660555</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01240804424694623</v>
+        <v>0.01412053500856365</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04000786103690165</v>
+        <v>0.04284949501006634</v>
       </c>
     </row>
     <row r="30">
@@ -3079,19 +3079,19 @@
         <v>81452</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65876</v>
+        <v>65934</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>99144</v>
+        <v>99714</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1515578624449523</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1225752720546835</v>
+        <v>0.1226828772595622</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1844769915289568</v>
+        <v>0.1855361766234281</v>
       </c>
     </row>
     <row r="31">
@@ -3141,19 +3141,19 @@
         <v>9040</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4019</v>
+        <v>4041</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19257</v>
+        <v>19945</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02311077950483581</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01027560738360173</v>
+        <v>0.01033142811292848</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04923272654748608</v>
+        <v>0.05099142024971513</v>
       </c>
     </row>
     <row r="33">
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6536</v>
+        <v>7338</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.005321634525210201</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01670935694275386</v>
+        <v>0.0187595103907511</v>
       </c>
     </row>
     <row r="34">
@@ -3199,19 +3199,19 @@
         <v>7638</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3273</v>
+        <v>3278</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14160</v>
+        <v>15486</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01952690521406174</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008367376632741778</v>
+        <v>0.008381308706205345</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03620119343616646</v>
+        <v>0.03959076388026751</v>
       </c>
     </row>
     <row r="35">
@@ -3228,19 +3228,19 @@
         <v>305800</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>287547</v>
+        <v>289197</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>322170</v>
+        <v>322111</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7818102560608897</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7351440748397772</v>
+        <v>0.7393609806923185</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8236602013512024</v>
+        <v>0.8235091428684705</v>
       </c>
     </row>
     <row r="36">
@@ -3257,19 +3257,19 @@
         <v>6515</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2259</v>
+        <v>2244</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14092</v>
+        <v>13288</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01665524946130286</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005775974549763314</v>
+        <v>0.005737310117537099</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03602673289566626</v>
+        <v>0.03397214902209578</v>
       </c>
     </row>
     <row r="37">
@@ -3286,19 +3286,19 @@
         <v>60070</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>46420</v>
+        <v>47217</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>75734</v>
+        <v>76009</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1535751752336996</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1186786624998659</v>
+        <v>0.1207160990808845</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1936207673140809</v>
+        <v>0.1943246810348628</v>
       </c>
     </row>
     <row r="38">
@@ -3348,19 +3348,19 @@
         <v>4972</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1934</v>
+        <v>1940</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>10132</v>
+        <v>10667</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01931183611571279</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.007511838539725289</v>
+        <v>0.007533605027029875</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03935342014422827</v>
+        <v>0.04143247767690558</v>
       </c>
     </row>
     <row r="40">
@@ -3377,19 +3377,19 @@
         <v>3674</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8691</v>
+        <v>9033</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01426938702723801</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003504075008528802</v>
+        <v>0.003508221714562192</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03375502061804684</v>
+        <v>0.03508627509548325</v>
       </c>
     </row>
     <row r="41">
@@ -3406,19 +3406,19 @@
         <v>6849</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2999</v>
+        <v>2906</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13430</v>
+        <v>13766</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02660126186907567</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01164767682757449</v>
+        <v>0.01128631803113967</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05216375798295881</v>
+        <v>0.05346674469123844</v>
       </c>
     </row>
     <row r="42">
@@ -3435,19 +3435,19 @@
         <v>182004</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>165631</v>
+        <v>165309</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>194953</v>
+        <v>195537</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7069130909233805</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6433208600132884</v>
+        <v>0.642067540409604</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7572093384359427</v>
+        <v>0.7594774265745559</v>
       </c>
     </row>
     <row r="43">
@@ -3464,19 +3464,19 @@
         <v>4046</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>10045</v>
+        <v>9509</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01571343132520469</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.00396100851216023</v>
+        <v>0.00400228059832265</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03901442694669282</v>
+        <v>0.03693411006260824</v>
       </c>
     </row>
     <row r="44">
@@ -3493,19 +3493,19 @@
         <v>55919</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>43845</v>
+        <v>43911</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>70699</v>
+        <v>70286</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2171909927393884</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.170296778931393</v>
+        <v>0.1705528274424759</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2745972812204286</v>
+        <v>0.2729941386693374</v>
       </c>
     </row>
     <row r="45">
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>6593</v>
+        <v>7566</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01029756118685201</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03130206267310771</v>
+        <v>0.03591938226170626</v>
       </c>
     </row>
     <row r="47">
@@ -3584,19 +3584,19 @@
         <v>7857</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3383</v>
+        <v>3375</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>15633</v>
+        <v>15799</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03730056740164133</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01606168772634383</v>
+        <v>0.01602251706238023</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.07422183803078634</v>
+        <v>0.07500770084991612</v>
       </c>
     </row>
     <row r="48">
@@ -3613,19 +3613,19 @@
         <v>5309</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11665</v>
+        <v>11650</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02520745058421198</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.009809349523770317</v>
+        <v>0.009805892576635436</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05538120055167</v>
+        <v>0.05531070861847237</v>
       </c>
     </row>
     <row r="49">
@@ -3642,19 +3642,19 @@
         <v>120179</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>104975</v>
+        <v>104413</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>134927</v>
+        <v>133867</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.5705688506579589</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4983860443190021</v>
+        <v>0.4957180204898189</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.6405866990493141</v>
+        <v>0.6355551240934806</v>
       </c>
     </row>
     <row r="50">
@@ -3674,16 +3674,16 @@
         <v>1064</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>8997</v>
+        <v>10129</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01585742788868125</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.005052541585843366</v>
+        <v>0.005049692930682336</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04271491328743627</v>
+        <v>0.04808972998713085</v>
       </c>
     </row>
     <row r="51">
@@ -3700,19 +3700,19 @@
         <v>71776</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>58361</v>
+        <v>57642</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>87436</v>
+        <v>86431</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.3407681422806546</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2770780538818793</v>
+        <v>0.2736623759405552</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4151179751752997</v>
+        <v>0.4103440498351585</v>
       </c>
     </row>
     <row r="52">
@@ -3762,19 +3762,19 @@
         <v>43730</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>32517</v>
+        <v>32006</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>59571</v>
+        <v>58981</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01595830772500044</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.01186625320876025</v>
+        <v>0.01167985260683401</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02173927123178709</v>
+        <v>0.02152377125987705</v>
       </c>
     </row>
     <row r="54">
@@ -3791,19 +3791,19 @@
         <v>25095</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>16460</v>
+        <v>16132</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>38773</v>
+        <v>37223</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.009158039594644772</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.006006745221003048</v>
+        <v>0.005887027834408607</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01414924553842938</v>
+        <v>0.01358354875561856</v>
       </c>
     </row>
     <row r="55">
@@ -3820,19 +3820,19 @@
         <v>42969</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>31028</v>
+        <v>31572</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>57900</v>
+        <v>59057</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.01568054506323587</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.01132299374003232</v>
+        <v>0.0115216227372185</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.02112923695190601</v>
+        <v>0.02155172032821458</v>
       </c>
     </row>
     <row r="56">
@@ -3849,19 +3849,19 @@
         <v>1975725</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1920727</v>
+        <v>1928154</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2018752</v>
+        <v>2026797</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.720997399477816</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.7009270458274339</v>
+        <v>0.7036373341166816</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7366989372583678</v>
+        <v>0.7396347213817189</v>
       </c>
     </row>
     <row r="57">
@@ -3878,19 +3878,19 @@
         <v>161686</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>137350</v>
+        <v>136391</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>189751</v>
+        <v>189757</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.05900362928924896</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.05012269316156184</v>
+        <v>0.04977278661324381</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.06924541316351325</v>
+        <v>0.06924756916106013</v>
       </c>
     </row>
     <row r="58">
@@ -3907,19 +3907,19 @@
         <v>491062</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>451774</v>
+        <v>448990</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>535451</v>
+        <v>529607</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.179202078850054</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.1648649263421489</v>
+        <v>0.1638491369150231</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.1954009433026666</v>
+        <v>0.1932685119954938</v>
       </c>
     </row>
     <row r="59">
@@ -4090,19 +4090,19 @@
         <v>11017</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5100</v>
+        <v>5967</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17988</v>
+        <v>18511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0506098750689653</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02342846115101767</v>
+        <v>0.02741045360912915</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08262892642467626</v>
+        <v>0.08503373262668026</v>
       </c>
     </row>
     <row r="5">
@@ -4140,19 +4140,19 @@
         <v>2808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8230</v>
+        <v>7616</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01290010559757708</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003956395291854933</v>
+        <v>0.003941341828318224</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0378046731884901</v>
+        <v>0.03498394945728261</v>
       </c>
     </row>
     <row r="7">
@@ -4169,19 +4169,19 @@
         <v>139445</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>127082</v>
+        <v>125955</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>152343</v>
+        <v>154060</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6405609467255995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5837681349351587</v>
+        <v>0.5785923114756816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6998106384742561</v>
+        <v>0.7076985148735704</v>
       </c>
     </row>
     <row r="8">
@@ -4198,19 +4198,19 @@
         <v>25179</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16672</v>
+        <v>16633</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35635</v>
+        <v>35596</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1156657075393151</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0765860519533145</v>
+        <v>0.07640802061933549</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1636963828915125</v>
+        <v>0.1635146815370364</v>
       </c>
     </row>
     <row r="9">
@@ -4227,19 +4227,19 @@
         <v>39242</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30075</v>
+        <v>28997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>51260</v>
+        <v>50114</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.180263365068543</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1381525556873563</v>
+        <v>0.1332028308066928</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2354723449433074</v>
+        <v>0.2302043528320475</v>
       </c>
     </row>
     <row r="10">
@@ -4289,19 +4289,19 @@
         <v>16525</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10155</v>
+        <v>10006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24916</v>
+        <v>24625</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03564469265015606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02190338901562615</v>
+        <v>0.02158291567124746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05374409132468166</v>
+        <v>0.05311558873169252</v>
       </c>
     </row>
     <row r="12">
@@ -4318,19 +4318,19 @@
         <v>5767</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1937</v>
+        <v>1955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12482</v>
+        <v>11641</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01244011580115958</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004178016749643878</v>
+        <v>0.004216005128953962</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02692412684487035</v>
+        <v>0.02510906748347214</v>
       </c>
     </row>
     <row r="13">
@@ -4347,19 +4347,19 @@
         <v>2689</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7332</v>
+        <v>7987</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005800194772386023</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001874054455051224</v>
+        <v>0.00186913444145095</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01581439052480671</v>
+        <v>0.01722828539642119</v>
       </c>
     </row>
     <row r="14">
@@ -4376,19 +4376,19 @@
         <v>348940</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>330587</v>
+        <v>330286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367042</v>
+        <v>366432</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7526588796606587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7130704199021551</v>
+        <v>0.7124217624641889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7917032903450706</v>
+        <v>0.7903894905067785</v>
       </c>
     </row>
     <row r="15">
@@ -4405,19 +4405,19 @@
         <v>46352</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35629</v>
+        <v>34001</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>59598</v>
+        <v>58995</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09998046096404317</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07685116092573722</v>
+        <v>0.07334042431302705</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1285521821258654</v>
+        <v>0.1272513338319692</v>
       </c>
     </row>
     <row r="16">
@@ -4434,19 +4434,19 @@
         <v>43336</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32519</v>
+        <v>32369</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59034</v>
+        <v>58069</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09347565615159643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07014265996982617</v>
+        <v>0.06981838713980698</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1273358564171346</v>
+        <v>0.1252537029919184</v>
       </c>
     </row>
     <row r="17">
@@ -4496,19 +4496,19 @@
         <v>15357</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9152</v>
+        <v>8483</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26467</v>
+        <v>25508</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02616946464107458</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01559613689058962</v>
+        <v>0.01445498394390654</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0451007147329072</v>
+        <v>0.04346656979714218</v>
       </c>
     </row>
     <row r="19">
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6661</v>
+        <v>6670</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003249650997011768</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01135077877572081</v>
+        <v>0.01136675756092772</v>
       </c>
     </row>
     <row r="20">
@@ -4554,19 +4554,19 @@
         <v>8762</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3696</v>
+        <v>4291</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16146</v>
+        <v>16640</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01493013824431941</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006297612555685236</v>
+        <v>0.007312524547667443</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02751296275744004</v>
+        <v>0.02835528940025046</v>
       </c>
     </row>
     <row r="21">
@@ -4583,19 +4583,19 @@
         <v>441639</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>420109</v>
+        <v>417811</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>458987</v>
+        <v>460814</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7525728740410751</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7158845238577758</v>
+        <v>0.7119682338228969</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7821343288951431</v>
+        <v>0.7852484387658487</v>
       </c>
     </row>
     <row r="22">
@@ -4612,19 +4612,19 @@
         <v>44514</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33130</v>
+        <v>33356</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58902</v>
+        <v>58617</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07585457269663722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05645502206896642</v>
+        <v>0.05684054788605928</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1003713046320862</v>
+        <v>0.09988597975069501</v>
       </c>
     </row>
     <row r="23">
@@ -4641,19 +4641,19 @@
         <v>74660</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>59896</v>
+        <v>60658</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>90890</v>
+        <v>91268</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1272232993798819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1020651863678499</v>
+        <v>0.103363104563297</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1548803835487118</v>
+        <v>0.1555243765953601</v>
       </c>
     </row>
     <row r="24">
@@ -4703,19 +4703,19 @@
         <v>5723</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2066</v>
+        <v>1995</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14023</v>
+        <v>12740</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009965836344564546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003597662046121144</v>
+        <v>0.003474108079685668</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02442078439575087</v>
+        <v>0.02218544230921098</v>
       </c>
     </row>
     <row r="26">
@@ -4732,19 +4732,19 @@
         <v>3102</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8554</v>
+        <v>9276</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005402269910798171</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00168811167165026</v>
+        <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01489558299456088</v>
+        <v>0.01615383955804688</v>
       </c>
     </row>
     <row r="27">
@@ -4761,19 +4761,19 @@
         <v>15975</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9339</v>
+        <v>9176</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>25715</v>
+        <v>25841</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02781980663603157</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01626352733747914</v>
+        <v>0.01597872425651589</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04478163645001729</v>
+        <v>0.0450008335832206</v>
       </c>
     </row>
     <row r="28">
@@ -4790,19 +4790,19 @@
         <v>462093</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>442764</v>
+        <v>442357</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>480842</v>
+        <v>480626</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8047025386749354</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.771042135767177</v>
+        <v>0.7703330461745874</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8373520237579853</v>
+        <v>0.836976092645067</v>
       </c>
     </row>
     <row r="29">
@@ -4819,19 +4819,19 @@
         <v>12460</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6311</v>
+        <v>7184</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20814</v>
+        <v>20102</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02169795144656919</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01098952435833447</v>
+        <v>0.01250996846015531</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0362458142022555</v>
+        <v>0.03500551081751847</v>
       </c>
     </row>
     <row r="30">
@@ -4848,19 +4848,19 @@
         <v>74888</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>58860</v>
+        <v>60475</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90484</v>
+        <v>92694</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1304115969871011</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1025006594946989</v>
+        <v>0.1053125160192631</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1575712172561519</v>
+        <v>0.1614202258756101</v>
       </c>
     </row>
     <row r="31">
@@ -4910,19 +4910,19 @@
         <v>9507</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4362</v>
+        <v>4349</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18021</v>
+        <v>19052</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02176577864197054</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009986222314103895</v>
+        <v>0.009956500151189393</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04125637200652685</v>
+        <v>0.04361698535717021</v>
       </c>
     </row>
     <row r="33">
@@ -4939,19 +4939,19 @@
         <v>3199</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8612</v>
+        <v>8993</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.007323847251875408</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0</v>
+        <v>0.002205963844329325</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01971543877856645</v>
+        <v>0.02058886754299859</v>
       </c>
     </row>
     <row r="34">
@@ -4968,19 +4968,19 @@
         <v>25299</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16515</v>
+        <v>16614</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>36363</v>
+        <v>36976</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05791907745312789</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03780922266724333</v>
+        <v>0.03803549125839682</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08324889109538161</v>
+        <v>0.08465231968866192</v>
       </c>
     </row>
     <row r="35">
@@ -4997,19 +4997,19 @@
         <v>327026</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>306532</v>
+        <v>305219</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>345105</v>
+        <v>344392</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.748677935772921</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7017608103567315</v>
+        <v>0.6987558958162843</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7900677897032312</v>
+        <v>0.7884353333806521</v>
       </c>
     </row>
     <row r="36">
@@ -5026,19 +5026,19 @@
         <v>10791</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5439</v>
+        <v>5007</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19239</v>
+        <v>19736</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02470385769501683</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01245170574688292</v>
+        <v>0.01146284349595345</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04404443895581891</v>
+        <v>0.04518309450907305</v>
       </c>
     </row>
     <row r="37">
@@ -5055,19 +5055,19 @@
         <v>60982</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>45912</v>
+        <v>47436</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78311</v>
+        <v>77393</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1396095031850883</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1051091045149013</v>
+        <v>0.1085974022750566</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1792824663695703</v>
+        <v>0.1771809160922168</v>
       </c>
     </row>
     <row r="38">
@@ -5117,19 +5117,19 @@
         <v>5089</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1979</v>
+        <v>1885</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>11194</v>
+        <v>11076</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01811523203968245</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.00704570800057962</v>
+        <v>0.006708646137251658</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03984687679681727</v>
+        <v>0.03942483161955128</v>
       </c>
     </row>
     <row r="40">
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5566</v>
+        <v>6268</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003936729852766458</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01981185484675303</v>
+        <v>0.02230990891606276</v>
       </c>
     </row>
     <row r="41">
@@ -5175,19 +5175,19 @@
         <v>13387</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7895</v>
+        <v>7291</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>21627</v>
+        <v>22448</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04765302020759091</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02810318857797573</v>
+        <v>0.02595265787488931</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07698289915741426</v>
+        <v>0.0799060397829502</v>
       </c>
     </row>
     <row r="42">
@@ -5204,19 +5204,19 @@
         <v>215407</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>199341</v>
+        <v>200641</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>228149</v>
+        <v>229333</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7667601259597874</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.7095686967701584</v>
+        <v>0.7141969534297807</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8121140100006717</v>
+        <v>0.8163289069647212</v>
       </c>
     </row>
     <row r="43">
@@ -5233,19 +5233,19 @@
         <v>5155</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>11371</v>
+        <v>11528</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01835076769685252</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.007199243112879075</v>
+        <v>0.00721946835295329</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04047574047716317</v>
+        <v>0.04103521057948198</v>
       </c>
     </row>
     <row r="44">
@@ -5262,19 +5262,19 @@
         <v>40787</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>30221</v>
+        <v>29789</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>53692</v>
+        <v>53345</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1451841242433203</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1075740873792782</v>
+        <v>0.1060368421381859</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1911194835525972</v>
+        <v>0.189885070300079</v>
       </c>
     </row>
     <row r="45">
@@ -5324,19 +5324,19 @@
         <v>7090</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2427</v>
+        <v>2414</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>16973</v>
+        <v>15344</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03217568181739461</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01101350512408126</v>
+        <v>0.0109539804203597</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07702958436093842</v>
+        <v>0.06963713784977164</v>
       </c>
     </row>
     <row r="47">
@@ -5374,19 +5374,19 @@
         <v>19856</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>11183</v>
+        <v>12332</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>31229</v>
+        <v>30783</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.0901146654706918</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.05075298124900232</v>
+        <v>0.05597046860127901</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1417298606549464</v>
+        <v>0.1397053309516492</v>
       </c>
     </row>
     <row r="49">
@@ -5403,19 +5403,19 @@
         <v>145219</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>127739</v>
+        <v>129281</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>160645</v>
+        <v>160417</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.659068684036805</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5797407005669002</v>
+        <v>0.5867364466097208</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.7290801234172265</v>
+        <v>0.7280454730954845</v>
       </c>
     </row>
     <row r="50">
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>8627</v>
+        <v>9452</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01218080503378819</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03915268059092111</v>
+        <v>0.04289947165609188</v>
       </c>
     </row>
     <row r="51">
@@ -5461,19 +5461,19 @@
         <v>45491</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>33160</v>
+        <v>33796</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>60976</v>
+        <v>59364</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.2064601636413204</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1504974019839473</v>
+        <v>0.1533835837523236</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2767368182858614</v>
+        <v>0.2694227797737938</v>
       </c>
     </row>
     <row r="52">
@@ -5523,19 +5523,19 @@
         <v>70309</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>54722</v>
+        <v>54825</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>87411</v>
+        <v>87694</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.02528675594085847</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.01968077445875947</v>
+        <v>0.01971785495388031</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.03143779784809268</v>
+        <v>0.03153926126255833</v>
       </c>
     </row>
     <row r="54">
@@ -5552,19 +5552,19 @@
         <v>15082</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>8956</v>
+        <v>8151</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>24477</v>
+        <v>24484</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.005424157250192557</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.003220907456164684</v>
+        <v>0.002931434963310799</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.008803070346362974</v>
+        <v>0.008805741757932297</v>
       </c>
     </row>
     <row r="55">
@@ -5581,19 +5581,19 @@
         <v>88776</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>72050</v>
+        <v>71112</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>110900</v>
+        <v>110436</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.03192872119166387</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.02591305982305587</v>
+        <v>0.02557556922575314</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03988549774130887</v>
+        <v>0.03971881986607136</v>
       </c>
     </row>
     <row r="56">
@@ -5610,19 +5610,19 @@
         <v>2079768</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2037768</v>
+        <v>2030725</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2126829</v>
+        <v>2126411</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.7479953990775303</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.7328898575029141</v>
+        <v>0.730356967782291</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7649209164230867</v>
+        <v>0.7647704876770547</v>
       </c>
     </row>
     <row r="57">
@@ -5639,19 +5639,19 @@
         <v>147136</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>122134</v>
+        <v>124699</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>168949</v>
+        <v>173656</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.05291781149758652</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.04392579477087382</v>
+        <v>0.04484825069834276</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.06076293394245115</v>
+        <v>0.06245584852267722</v>
       </c>
     </row>
     <row r="58">
@@ -5668,19 +5668,19 @@
         <v>379385</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>345373</v>
+        <v>341357</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>414905</v>
+        <v>418505</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.1364471550421682</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.1242143868614119</v>
+        <v>0.1227702307668294</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.149221846822495</v>
+        <v>0.1505166325289742</v>
       </c>
     </row>
     <row r="59">
@@ -5851,19 +5851,19 @@
         <v>15631</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7181</v>
+        <v>7223</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28626</v>
+        <v>28259</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1456193845676743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06689586667560024</v>
+        <v>0.06728746008899801</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2666792664133463</v>
+        <v>0.2632598932414138</v>
       </c>
     </row>
     <row r="5">
@@ -5922,19 +5922,19 @@
         <v>54741</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39335</v>
+        <v>41631</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68220</v>
+        <v>68713</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5099735461551986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3664481994579928</v>
+        <v>0.3878372148896129</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6355459302490699</v>
+        <v>0.6401389604598964</v>
       </c>
     </row>
     <row r="8">
@@ -5951,19 +5951,19 @@
         <v>6615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1716</v>
+        <v>1689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19940</v>
+        <v>17691</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06162978288047167</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01598650748961396</v>
+        <v>0.01573453927774884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.185765444122603</v>
+        <v>0.1648081368037194</v>
       </c>
     </row>
     <row r="9">
@@ -5980,19 +5980,19 @@
         <v>30354</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18066</v>
+        <v>18974</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43849</v>
+        <v>43825</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2827772863966554</v>
+        <v>0.2827772863966553</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1683051868039378</v>
+        <v>0.1767629067484518</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4084979333490206</v>
+        <v>0.4082738958688462</v>
       </c>
     </row>
     <row r="10">
@@ -6042,19 +6042,19 @@
         <v>16743</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10071</v>
+        <v>10160</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27720</v>
+        <v>26955</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06944497990788936</v>
+        <v>0.06944497990788935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04177009063588071</v>
+        <v>0.04214122735396393</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1149738626865722</v>
+        <v>0.1118002193103894</v>
       </c>
     </row>
     <row r="12">
@@ -6071,19 +6071,19 @@
         <v>3190</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8343</v>
+        <v>9195</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01322936895111707</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00343989434971602</v>
+        <v>0.003516322849837769</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0346032921658825</v>
+        <v>0.03813854974973185</v>
       </c>
     </row>
     <row r="13">
@@ -6121,19 +6121,19 @@
         <v>172920</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>156347</v>
+        <v>158031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187612</v>
+        <v>187173</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7172238596918213</v>
+        <v>0.7172238596918211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6484826913696513</v>
+        <v>0.6554679310116883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7781621982054243</v>
+        <v>0.7763432391320392</v>
       </c>
     </row>
     <row r="15">
@@ -6150,19 +6150,19 @@
         <v>15931</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9171</v>
+        <v>9164</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>25469</v>
+        <v>25179</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06607939092721953</v>
+        <v>0.06607939092721951</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03803781543488223</v>
+        <v>0.03800892966018</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1056382584227552</v>
+        <v>0.1044369255503879</v>
       </c>
     </row>
     <row r="16">
@@ -6179,19 +6179,19 @@
         <v>32312</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22666</v>
+        <v>21675</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47205</v>
+        <v>44510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1340224005219528</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09401317497303031</v>
+        <v>0.08990152295495105</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1957935335908959</v>
+        <v>0.1846140623929434</v>
       </c>
     </row>
     <row r="17">
@@ -6241,19 +6241,19 @@
         <v>27910</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19731</v>
+        <v>20323</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36622</v>
+        <v>37442</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08137339533237081</v>
+        <v>0.08137339533237084</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.057525765430415</v>
+        <v>0.05925205186272208</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1067734078587877</v>
+        <v>0.1091658063592588</v>
       </c>
     </row>
     <row r="19">
@@ -6273,16 +6273,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6237</v>
+        <v>5943</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.005296128869679944</v>
+        <v>0.005296128869679946</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01818408229876864</v>
+        <v>0.01732676385614623</v>
       </c>
     </row>
     <row r="20">
@@ -6299,19 +6299,19 @@
         <v>1927</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5454</v>
+        <v>5381</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.005619364689764035</v>
+        <v>0.005619364689764037</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001366408184545225</v>
+        <v>0.001365006514816165</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01590127462382669</v>
+        <v>0.01568917338964699</v>
       </c>
     </row>
     <row r="21">
@@ -6328,19 +6328,19 @@
         <v>240405</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>225590</v>
+        <v>224513</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>254704</v>
+        <v>254819</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7009148249646079</v>
+        <v>0.7009148249646081</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6577207226498486</v>
+        <v>0.6545808716556416</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7426061361470689</v>
+        <v>0.7429405752387713</v>
       </c>
     </row>
     <row r="22">
@@ -6357,19 +6357,19 @@
         <v>21883</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14919</v>
+        <v>15444</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30954</v>
+        <v>30764</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06380131363201433</v>
+        <v>0.06380131363201434</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04349642911350247</v>
+        <v>0.0450266755646457</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09024791228111678</v>
+        <v>0.08969359340657211</v>
       </c>
     </row>
     <row r="23">
@@ -6386,19 +6386,19 @@
         <v>49045</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>37764</v>
+        <v>38403</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59764</v>
+        <v>61245</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1429949725115629</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1101025791630827</v>
+        <v>0.1119677578058417</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1742462564370373</v>
+        <v>0.1785637894640173</v>
       </c>
     </row>
     <row r="24">
@@ -6448,19 +6448,19 @@
         <v>15293</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10372</v>
+        <v>9733</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22786</v>
+        <v>22063</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03396099833973956</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02303258195401395</v>
+        <v>0.02161330298599543</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05060065399966641</v>
+        <v>0.04899578657498295</v>
       </c>
     </row>
     <row r="26">
@@ -6477,19 +6477,19 @@
         <v>3124</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7752</v>
+        <v>7931</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006938375379730118</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001791276178193073</v>
+        <v>0.001796456175671665</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.017215301670335</v>
+        <v>0.01761175416095528</v>
       </c>
     </row>
     <row r="27">
@@ -6506,19 +6506,19 @@
         <v>8113</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4599</v>
+        <v>4256</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13472</v>
+        <v>14556</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01801703529496195</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01021250026286075</v>
+        <v>0.009450948623259169</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02991785969367034</v>
+        <v>0.03232510280593807</v>
       </c>
     </row>
     <row r="28">
@@ -6535,19 +6535,19 @@
         <v>341357</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>324750</v>
+        <v>326861</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>355428</v>
+        <v>356433</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7580515412209843</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7211728613351023</v>
+        <v>0.7258616774255517</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7893005958107882</v>
+        <v>0.7915317067528267</v>
       </c>
     </row>
     <row r="29">
@@ -6564,19 +6564,19 @@
         <v>9995</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5618</v>
+        <v>6371</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16330</v>
+        <v>16799</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02219661189743299</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01247495064820555</v>
+        <v>0.01414891899119501</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03626504370675159</v>
+        <v>0.03730655466631235</v>
       </c>
     </row>
     <row r="30">
@@ -6593,19 +6593,19 @@
         <v>72425</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>60700</v>
+        <v>60011</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>86040</v>
+        <v>85028</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1608354378671511</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1347957740046105</v>
+        <v>0.1332669469932919</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1910684658012882</v>
+        <v>0.188822043549155</v>
       </c>
     </row>
     <row r="31">
@@ -6655,19 +6655,19 @@
         <v>21309</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>15229</v>
+        <v>15207</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29794</v>
+        <v>29257</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05378568727616491</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03843912667193202</v>
+        <v>0.03838428686942061</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07520084750429655</v>
+        <v>0.07384493431785502</v>
       </c>
     </row>
     <row r="33">
@@ -6684,19 +6684,19 @@
         <v>3474</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>7628</v>
+        <v>7655</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.008768996500302632</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.00349422392121729</v>
+        <v>0.003478943004520289</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01925314012699189</v>
+        <v>0.01932198687517522</v>
       </c>
     </row>
     <row r="34">
@@ -6713,19 +6713,19 @@
         <v>13613</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8885</v>
+        <v>8989</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20685</v>
+        <v>20327</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03435918597334442</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02242508973170892</v>
+        <v>0.02268851134631458</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05220914477701438</v>
+        <v>0.05130754695102714</v>
       </c>
     </row>
     <row r="35">
@@ -6742,19 +6742,19 @@
         <v>289485</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>275011</v>
+        <v>273794</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>302820</v>
+        <v>302272</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7306736220276142</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6941411725883142</v>
+        <v>0.6910684890443271</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7643322264808697</v>
+        <v>0.7629488437053448</v>
       </c>
     </row>
     <row r="36">
@@ -6771,19 +6771,19 @@
         <v>3366</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1201</v>
+        <v>1352</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7935</v>
+        <v>7811</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.008496356393866887</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003030265240251177</v>
+        <v>0.003412313169731739</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02002798853476314</v>
+        <v>0.01971639963370339</v>
       </c>
     </row>
     <row r="37">
@@ -6800,19 +6800,19 @@
         <v>64942</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>53800</v>
+        <v>53914</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>77429</v>
+        <v>76944</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1639161518287069</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1357930380521343</v>
+        <v>0.1360815608516102</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1954352166140643</v>
+        <v>0.1942105199508119</v>
       </c>
     </row>
     <row r="38">
@@ -6862,19 +6862,19 @@
         <v>12287</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>7783</v>
+        <v>7786</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>18269</v>
+        <v>18267</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0417252588436194</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02642995434861763</v>
+        <v>0.02643897080280017</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06204093232354303</v>
+        <v>0.06203450300384004</v>
       </c>
     </row>
     <row r="40">
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2222</v>
+        <v>2294</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001552258794117557</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.007544121038847382</v>
+        <v>0.007790730799394387</v>
       </c>
     </row>
     <row r="41">
@@ -6920,19 +6920,19 @@
         <v>23015</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>16757</v>
+        <v>16751</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>29898</v>
+        <v>30591</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.07815705772138271</v>
+        <v>0.07815705772138272</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.05690419974489647</v>
+        <v>0.05688422418853103</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1015322534522869</v>
+        <v>0.1038830578569604</v>
       </c>
     </row>
     <row r="42">
@@ -6949,19 +6949,19 @@
         <v>216715</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>205495</v>
+        <v>206001</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>227054</v>
+        <v>227692</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7359445485747913</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.697840968091846</v>
+        <v>0.6995600417259742</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7710549140497323</v>
+        <v>0.7732223561885561</v>
       </c>
     </row>
     <row r="43">
@@ -6978,19 +6978,19 @@
         <v>1853</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>4425</v>
+        <v>4445</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.006292894321336589</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.001560166741126691</v>
+        <v>0.001664525498046787</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01502651362244495</v>
+        <v>0.01509594745382186</v>
       </c>
     </row>
     <row r="44">
@@ -7007,19 +7007,19 @@
         <v>40145</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>32857</v>
+        <v>32107</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>50034</v>
+        <v>49597</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1363279817447524</v>
+        <v>0.1363279817447525</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1115778003638991</v>
+        <v>0.1090319554251663</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1699122971601168</v>
+        <v>0.1684263466837101</v>
       </c>
     </row>
     <row r="45">
@@ -7069,19 +7069,19 @@
         <v>17305</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>11884</v>
+        <v>12413</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>25134</v>
+        <v>24959</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.06503394248684172</v>
+        <v>0.0650339424868417</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.04466176585021258</v>
+        <v>0.04664779503970607</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09445486056172543</v>
+        <v>0.09379851712087578</v>
       </c>
     </row>
     <row r="47">
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4552</v>
+        <v>4441</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.004813791756742894</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0171078374184748</v>
+        <v>0.01668864875415011</v>
       </c>
     </row>
     <row r="48">
@@ -7127,19 +7127,19 @@
         <v>25489</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>18167</v>
+        <v>18888</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>32904</v>
+        <v>33447</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.09579093487832568</v>
+        <v>0.09579093487832567</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.06827259980202384</v>
+        <v>0.07098306011886958</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1236554072522974</v>
+        <v>0.1256957167357478</v>
       </c>
     </row>
     <row r="49">
@@ -7156,19 +7156,19 @@
         <v>175479</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>162841</v>
+        <v>163951</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>186150</v>
+        <v>186751</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.6594597273981989</v>
+        <v>0.6594597273981988</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.6119658492497903</v>
+        <v>0.6161382594850133</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.6995619932932274</v>
+        <v>0.7018195052567402</v>
       </c>
     </row>
     <row r="50">
@@ -7185,19 +7185,19 @@
         <v>3225</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1244</v>
+        <v>1044</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>7409</v>
+        <v>7834</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01212111708053006</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.004673480504676613</v>
+        <v>0.003921703436700164</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02784509021184743</v>
+        <v>0.02944140686674798</v>
       </c>
     </row>
     <row r="51">
@@ -7214,19 +7214,19 @@
         <v>43315</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>35062</v>
+        <v>34393</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>52811</v>
+        <v>53114</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1627804863993608</v>
+        <v>0.1627804863993607</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1317644557239732</v>
+        <v>0.1292494064288913</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1984679669518069</v>
+        <v>0.1996063897456343</v>
       </c>
     </row>
     <row r="52">
@@ -7276,19 +7276,19 @@
         <v>126478</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>107292</v>
+        <v>107872</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>147562</v>
+        <v>146003</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.06027111355547678</v>
+        <v>0.0602711135554768</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.05112818457171163</v>
+        <v>0.05140470134805887</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.07031817319941891</v>
+        <v>0.06957551722700483</v>
       </c>
     </row>
     <row r="54">
@@ -7305,19 +7305,19 @@
         <v>13343</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>8204</v>
+        <v>7743</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>21576</v>
+        <v>20622</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.006358224600480849</v>
+        <v>0.006358224600480851</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.003909278888543352</v>
+        <v>0.003689993479518078</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01028174887156901</v>
+        <v>0.009826907985816829</v>
       </c>
     </row>
     <row r="55">
@@ -7334,19 +7334,19 @@
         <v>72158</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>60863</v>
+        <v>60257</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>86393</v>
+        <v>85296</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.0343856520752413</v>
+        <v>0.03438565207524131</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.02900333903817585</v>
+        <v>0.02871449201139544</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.04116907640605328</v>
+        <v>0.04064664315684325</v>
       </c>
     </row>
     <row r="56">
@@ -7363,19 +7363,19 @@
         <v>1491100</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1453333</v>
+        <v>1453575</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1529061</v>
+        <v>1528088</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.7105597057032631</v>
+        <v>0.710559705703263</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6925622873899351</v>
+        <v>0.6926777495126158</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7286491922959438</v>
+        <v>0.7281853964902747</v>
       </c>
     </row>
     <row r="57">
@@ -7392,19 +7392,19 @@
         <v>62870</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>48515</v>
+        <v>50070</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>80018</v>
+        <v>79898</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.02995957642981256</v>
+        <v>0.02995957642981257</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.02311883783990058</v>
+        <v>0.02386017405725543</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.03813136621100815</v>
+        <v>0.03807414864978555</v>
       </c>
     </row>
     <row r="58">
@@ -7421,19 +7421,19 @@
         <v>332538</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>305085</v>
+        <v>301300</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>359741</v>
+        <v>365981</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.1584657276357253</v>
+        <v>0.1584657276357254</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.1453830844438813</v>
+        <v>0.1435794621996855</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.1714287999777393</v>
+        <v>0.17440229013168</v>
       </c>
     </row>
     <row r="59">
